--- a/data/processed/test/tests.xlsx
+++ b/data/processed/test/tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hack\HSE AI Assistant hack\pocket-tutor-py\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hack\HSE AI Assistant hack\pocket-tutor-py\data\processed\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF82706-1E13-4462-A825-558158A346AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF96ED-5988-449B-8989-13168FC25C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,34 +43,19 @@
     <t>open</t>
   </si>
   <si>
-    <t>0.1; 500</t>
-  </si>
-  <si>
     <t>Реализация проекта будет стоить 500 тыс. руб. без скидки. Со скидкой стоимость составит 450.0 тыс. руб.</t>
   </si>
   <si>
-    <t>0.05; 900000</t>
-  </si>
-  <si>
     <t>Реализация проекта будет стоить 900000 тыс. руб. без скидки. Со скидкой стоимость составит 855000.0 тыс. руб.</t>
   </si>
   <si>
-    <t>0; 2345678</t>
-  </si>
-  <si>
     <t>Реализация проекта будет стоить 2345678 тыс. руб. без скидки. Со скидкой стоимость составит 2345678.0 тыс. руб.</t>
   </si>
   <si>
     <t>closed</t>
   </si>
   <si>
-    <t>0.5; 100</t>
-  </si>
-  <si>
     <t>Реализация проекта будет стоить 100 тыс. руб. без скидки. Со скидкой стоимость составит 50.0 тыс. руб.</t>
-  </si>
-  <si>
-    <t>0.003; 12345667</t>
   </si>
   <si>
     <t>Реализация проекта будет стоить 12345667 тыс. руб. без скидки. Со скидкой стоимость составит 12308629.999 тыс. руб.</t>
@@ -857,6 +842,26 @@
   <si>
     <t>126</t>
   </si>
+  <si>
+    <t>0.1
+500</t>
+  </si>
+  <si>
+    <t>0.05
+900000</t>
+  </si>
+  <si>
+    <t>0
+2345678</t>
+  </si>
+  <si>
+    <t>0.5
+100</t>
+  </si>
+  <si>
+    <t>0.003
+12345667</t>
+  </si>
 </sst>
 </file>
 
@@ -911,13 +916,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,11 +1231,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1239,7 +1251,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1249,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1259,17 +1271,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1279,17 +1291,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1299,17 +1311,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1319,17 +1331,17 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1339,14 +1351,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1359,14 +1371,14 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,14 +1391,14 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1399,14 +1411,14 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1419,14 +1431,14 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,14 +1451,14 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1459,14 +1471,14 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1479,14 +1491,14 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1499,11 +1511,11 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1516,14 +1528,14 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1536,14 +1548,14 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,14 +1568,14 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1576,11 +1588,11 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1593,14 +1605,14 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1613,14 +1625,14 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1633,14 +1645,14 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1653,14 +1665,14 @@
       <c r="C22">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,14 +1685,14 @@
       <c r="C23">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1693,14 +1705,14 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1713,14 +1725,14 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,14 +1745,14 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,14 +1765,14 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1773,14 +1785,14 @@
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1793,14 +1805,14 @@
       <c r="C29">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1813,14 +1825,14 @@
       <c r="C30">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
-        <v>13</v>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1833,14 +1845,14 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>13</v>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1853,14 +1865,14 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1873,14 +1885,14 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1893,14 +1905,14 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1913,14 +1925,14 @@
       <c r="C35">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1933,11 +1945,11 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,14 +1962,14 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,14 +1982,14 @@
       <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,14 +2002,14 @@
       <c r="C39">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,14 +2022,14 @@
       <c r="C40">
         <v>16</v>
       </c>
-      <c r="D40" t="s">
-        <v>13</v>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,14 +2042,14 @@
       <c r="C41">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>13</v>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,14 +2062,14 @@
       <c r="C42">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,14 +2082,14 @@
       <c r="C43">
         <v>16</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,14 +2102,14 @@
       <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,11 +2122,11 @@
       <c r="C45">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2127,14 +2139,14 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2147,14 +2159,14 @@
       <c r="C47">
         <v>17</v>
       </c>
-      <c r="D47" t="s">
-        <v>13</v>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,14 +2179,14 @@
       <c r="C48">
         <v>17</v>
       </c>
-      <c r="D48" t="s">
-        <v>13</v>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2187,14 +2199,14 @@
       <c r="C49">
         <v>17</v>
       </c>
-      <c r="D49" t="s">
-        <v>13</v>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2207,14 +2219,14 @@
       <c r="C50">
         <v>17</v>
       </c>
-      <c r="D50" t="s">
-        <v>13</v>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2227,11 +2239,11 @@
       <c r="C51">
         <v>17</v>
       </c>
-      <c r="D51" t="s">
-        <v>13</v>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2244,14 +2256,14 @@
       <c r="C52">
         <v>17</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
+      <c r="D52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2264,14 +2276,14 @@
       <c r="C53">
         <v>17</v>
       </c>
-      <c r="D53" t="s">
-        <v>13</v>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2284,14 +2296,14 @@
       <c r="C54">
         <v>19</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2304,14 +2316,14 @@
       <c r="C55">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2324,11 +2336,11 @@
       <c r="C56">
         <v>19</v>
       </c>
-      <c r="D56" t="s">
-        <v>13</v>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2341,14 +2353,14 @@
       <c r="C57">
         <v>19</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2361,14 +2373,14 @@
       <c r="C58">
         <v>19</v>
       </c>
-      <c r="D58" t="s">
-        <v>13</v>
+      <c r="D58" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,14 +2393,14 @@
       <c r="C59">
         <v>20</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2401,14 +2413,14 @@
       <c r="C60">
         <v>20</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,14 +2433,14 @@
       <c r="C61">
         <v>20</v>
       </c>
-      <c r="D61" t="s">
-        <v>13</v>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2441,11 +2453,11 @@
       <c r="C62">
         <v>20</v>
       </c>
-      <c r="D62" t="s">
-        <v>13</v>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F62">
         <v>90000</v>
@@ -2461,14 +2473,14 @@
       <c r="C63">
         <v>20</v>
       </c>
-      <c r="D63" t="s">
-        <v>13</v>
+      <c r="D63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -2481,14 +2493,14 @@
       <c r="C64">
         <v>22</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2501,14 +2513,14 @@
       <c r="C65">
         <v>22</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2521,14 +2533,14 @@
       <c r="C66">
         <v>22</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,14 +2553,14 @@
       <c r="C67">
         <v>22</v>
       </c>
-      <c r="D67" t="s">
-        <v>13</v>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,14 +2573,14 @@
       <c r="C68">
         <v>22</v>
       </c>
-      <c r="D68" t="s">
-        <v>13</v>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2581,14 +2593,14 @@
       <c r="C69">
         <v>22</v>
       </c>
-      <c r="D69" t="s">
-        <v>13</v>
+      <c r="D69" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2601,14 +2613,14 @@
       <c r="C70">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
-        <v>13</v>
+      <c r="D70" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2621,14 +2633,14 @@
       <c r="C71">
         <v>22</v>
       </c>
-      <c r="D71" t="s">
-        <v>13</v>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,14 +2653,14 @@
       <c r="C72">
         <v>24</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,14 +2673,14 @@
       <c r="C73">
         <v>24</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2681,14 +2693,14 @@
       <c r="C74">
         <v>24</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2701,14 +2713,14 @@
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="D75" t="s">
-        <v>13</v>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,14 +2733,14 @@
       <c r="C76">
         <v>24</v>
       </c>
-      <c r="D76" t="s">
-        <v>13</v>
+      <c r="D76" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2741,14 +2753,14 @@
       <c r="C77">
         <v>25</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2761,14 +2773,14 @@
       <c r="C78">
         <v>25</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2781,14 +2793,14 @@
       <c r="C79">
         <v>25</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2801,14 +2813,14 @@
       <c r="C80">
         <v>25</v>
       </c>
-      <c r="D80" t="s">
-        <v>13</v>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2821,14 +2833,14 @@
       <c r="C81">
         <v>25</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F81" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2841,14 +2853,14 @@
       <c r="C82">
         <v>25</v>
       </c>
-      <c r="D82" t="s">
-        <v>13</v>
+      <c r="D82" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2861,14 +2873,14 @@
       <c r="C83">
         <v>25</v>
       </c>
-      <c r="D83" t="s">
-        <v>13</v>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2881,14 +2893,14 @@
       <c r="C84">
         <v>31</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2901,14 +2913,14 @@
       <c r="C85">
         <v>31</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F85" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2921,14 +2933,14 @@
       <c r="C86">
         <v>31</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
+      <c r="D86" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F86" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2941,11 +2953,11 @@
       <c r="C87">
         <v>31</v>
       </c>
-      <c r="D87" t="s">
-        <v>13</v>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,14 +2970,14 @@
       <c r="C88">
         <v>33</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2978,14 +2990,14 @@
       <c r="C89">
         <v>33</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2998,11 +3010,11 @@
       <c r="C90">
         <v>33</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3015,14 +3027,14 @@
       <c r="C91">
         <v>33</v>
       </c>
-      <c r="D91" t="s">
-        <v>13</v>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3035,14 +3047,14 @@
       <c r="C92">
         <v>33</v>
       </c>
-      <c r="D92" t="s">
-        <v>13</v>
+      <c r="D92" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,14 +3067,14 @@
       <c r="C93">
         <v>36</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3075,14 +3087,14 @@
       <c r="C94">
         <v>36</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3095,14 +3107,14 @@
       <c r="C95">
         <v>36</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3115,14 +3127,14 @@
       <c r="C96">
         <v>36</v>
       </c>
-      <c r="D96" t="s">
-        <v>13</v>
+      <c r="D96" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3135,14 +3147,14 @@
       <c r="C97">
         <v>36</v>
       </c>
-      <c r="D97" t="s">
-        <v>13</v>
+      <c r="D97" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,14 +3167,14 @@
       <c r="C98">
         <v>37</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,14 +3187,14 @@
       <c r="C99">
         <v>37</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3195,14 +3207,14 @@
       <c r="C100">
         <v>37</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3215,14 +3227,14 @@
       <c r="C101">
         <v>37</v>
       </c>
-      <c r="D101" t="s">
-        <v>13</v>
+      <c r="D101" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3235,14 +3247,14 @@
       <c r="C102">
         <v>37</v>
       </c>
-      <c r="D102" t="s">
-        <v>13</v>
+      <c r="D102" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3255,14 +3267,14 @@
       <c r="C103">
         <v>41</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3275,14 +3287,14 @@
       <c r="C104">
         <v>41</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3295,14 +3307,14 @@
       <c r="C105">
         <v>41</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F105" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3315,14 +3327,14 @@
       <c r="C106">
         <v>41</v>
       </c>
-      <c r="D106" t="s">
-        <v>13</v>
+      <c r="D106" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3335,14 +3347,14 @@
       <c r="C107">
         <v>41</v>
       </c>
-      <c r="D107" t="s">
-        <v>13</v>
+      <c r="D107" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F107" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3355,14 +3367,14 @@
       <c r="C108">
         <v>42</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F108" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,14 +3387,14 @@
       <c r="C109">
         <v>42</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F109" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3395,14 +3407,14 @@
       <c r="C110">
         <v>42</v>
       </c>
-      <c r="D110" t="s">
-        <v>13</v>
+      <c r="D110" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3415,14 +3427,14 @@
       <c r="C111">
         <v>44</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F111" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3435,14 +3447,14 @@
       <c r="C112">
         <v>44</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3455,14 +3467,14 @@
       <c r="C113">
         <v>44</v>
       </c>
-      <c r="D113" t="s">
-        <v>13</v>
+      <c r="D113" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,14 +3487,14 @@
       <c r="C114">
         <v>44</v>
       </c>
-      <c r="D114" t="s">
-        <v>13</v>
+      <c r="D114" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3495,14 +3507,14 @@
       <c r="C115">
         <v>45</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F115" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3515,14 +3527,14 @@
       <c r="C116">
         <v>45</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3535,11 +3547,11 @@
       <c r="C117">
         <v>45</v>
       </c>
-      <c r="D117" t="s">
-        <v>13</v>
+      <c r="D117" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3552,14 +3564,14 @@
       <c r="C118">
         <v>46</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F118" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3572,14 +3584,14 @@
       <c r="C119">
         <v>46</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F119" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3592,14 +3604,14 @@
       <c r="C120">
         <v>46</v>
       </c>
-      <c r="D120" t="s">
-        <v>13</v>
+      <c r="D120" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F120" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
